--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Il34</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H2">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I2">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J2">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="N2">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="O2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q2">
-        <v>0.388865037998</v>
+        <v>0.29332634612</v>
       </c>
       <c r="R2">
-        <v>3.499785341982</v>
+        <v>2.63993711508</v>
       </c>
       <c r="S2">
-        <v>0.004203312527681931</v>
+        <v>0.002186133364987336</v>
       </c>
       <c r="T2">
-        <v>0.004203312527681931</v>
+        <v>0.002186133364987336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H3">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I3">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J3">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>0.162484</v>
       </c>
       <c r="O3">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P3">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q3">
-        <v>0.2176421546195555</v>
+        <v>0.1144873096266667</v>
       </c>
       <c r="R3">
-        <v>1.958779391576</v>
+        <v>1.03038578664</v>
       </c>
       <c r="S3">
-        <v>0.00235253341306752</v>
+        <v>0.0008532630319545187</v>
       </c>
       <c r="T3">
-        <v>0.002352533413067519</v>
+        <v>0.0008532630319545187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H4">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I4">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J4">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,43 +679,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="N4">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="O4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q4">
-        <v>15.90625479123644</v>
+        <v>21.14320129812</v>
       </c>
       <c r="R4">
-        <v>143.156293121128</v>
+        <v>190.28881168308</v>
       </c>
       <c r="S4">
-        <v>0.1719335849186029</v>
+        <v>0.1575782687503778</v>
       </c>
       <c r="T4">
-        <v>0.1719335849186029</v>
+        <v>0.1575782687503777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.352037</v>
+        <v>2.11382</v>
       </c>
       <c r="H5">
-        <v>13.056111</v>
+        <v>6.34146</v>
       </c>
       <c r="I5">
-        <v>0.1933087062267439</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J5">
-        <v>0.1933087062267439</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09677100000000001</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N5">
-        <v>0.290313</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q5">
-        <v>0.4211509725270001</v>
+        <v>0.06596316231333334</v>
       </c>
       <c r="R5">
-        <v>3.790358752743001</v>
+        <v>0.59366846082</v>
       </c>
       <c r="S5">
-        <v>0.004552297033392014</v>
+        <v>0.0004916171762295746</v>
       </c>
       <c r="T5">
-        <v>0.004552297033392014</v>
+        <v>0.0004916171762295745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>13.056111</v>
       </c>
       <c r="I6">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J6">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05416133333333333</v>
+        <v>0.138766</v>
       </c>
       <c r="N6">
-        <v>0.162484</v>
+        <v>0.416298</v>
       </c>
       <c r="O6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q6">
-        <v>0.235712126636</v>
+        <v>0.603914766342</v>
       </c>
       <c r="R6">
-        <v>2.121409139724</v>
+        <v>5.435232897078</v>
       </c>
       <c r="S6">
-        <v>0.00254785500881348</v>
+        <v>0.004500919326791964</v>
       </c>
       <c r="T6">
-        <v>0.00254785500881348</v>
+        <v>0.004500919326791965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,55 +853,55 @@
         <v>13.056111</v>
       </c>
       <c r="I7">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J7">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.958350666666666</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N7">
-        <v>11.875052</v>
+        <v>0.162484</v>
       </c>
       <c r="O7">
-        <v>0.9632703969686844</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P7">
-        <v>0.9632703969686844</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q7">
-        <v>17.226888560308</v>
+        <v>0.235712126636</v>
       </c>
       <c r="R7">
-        <v>155.041997042772</v>
+        <v>2.121409139724</v>
       </c>
       <c r="S7">
-        <v>0.1862085541845384</v>
+        <v>0.001756740065756899</v>
       </c>
       <c r="T7">
-        <v>0.1862085541845384</v>
+        <v>0.001756740065756899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -906,61 +909,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.14296233333333</v>
+        <v>4.352037</v>
       </c>
       <c r="H8">
-        <v>42.428887</v>
+        <v>13.056111</v>
       </c>
       <c r="I8">
-        <v>0.6282018629139038</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J8">
-        <v>0.6282018629139038</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09677100000000001</v>
+        <v>10.002366</v>
       </c>
       <c r="N8">
-        <v>0.290313</v>
+        <v>30.007098</v>
       </c>
       <c r="O8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q8">
-        <v>1.368628607959</v>
+        <v>43.530666919542</v>
       </c>
       <c r="R8">
-        <v>12.317657471631</v>
+        <v>391.776002275878</v>
       </c>
       <c r="S8">
-        <v>0.01479375416004237</v>
+        <v>0.324429921184201</v>
       </c>
       <c r="T8">
-        <v>0.01479375416004237</v>
+        <v>0.324429921184201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.14296233333333</v>
+        <v>4.352037</v>
       </c>
       <c r="H9">
-        <v>42.428887</v>
+        <v>13.056111</v>
       </c>
       <c r="I9">
-        <v>0.6282018629139038</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J9">
-        <v>0.6282018629139038</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05416133333333333</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N9">
-        <v>0.162484</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q9">
-        <v>0.7660016972564443</v>
+        <v>0.135808215943</v>
       </c>
       <c r="R9">
-        <v>6.894015275307999</v>
+        <v>1.222273943487</v>
       </c>
       <c r="S9">
-        <v>0.008279850888318211</v>
+        <v>0.001012165719307523</v>
       </c>
       <c r="T9">
-        <v>0.008279850888318209</v>
+        <v>0.001012165719307523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.620393</v>
+      </c>
+      <c r="H10">
+        <v>19.861179</v>
+      </c>
+      <c r="I10">
+        <v>0.5045873181869075</v>
+      </c>
+      <c r="J10">
+        <v>0.5045873181869074</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.138766</v>
+      </c>
+      <c r="N10">
+        <v>0.416298</v>
+      </c>
+      <c r="O10">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="P10">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="Q10">
+        <v>0.918685455038</v>
+      </c>
+      <c r="R10">
+        <v>8.268169095342</v>
+      </c>
+      <c r="S10">
+        <v>0.006846875337837945</v>
+      </c>
+      <c r="T10">
+        <v>0.006846875337837944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.620393</v>
+      </c>
+      <c r="H11">
+        <v>19.861179</v>
+      </c>
+      <c r="I11">
+        <v>0.5045873181869075</v>
+      </c>
+      <c r="J11">
+        <v>0.5045873181869074</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.162484</v>
+      </c>
+      <c r="O11">
+        <v>0.00529617548814441</v>
+      </c>
+      <c r="P11">
+        <v>0.005296175488144411</v>
+      </c>
+      <c r="Q11">
+        <v>0.3585693120706667</v>
+      </c>
+      <c r="R11">
+        <v>3.227123808636</v>
+      </c>
+      <c r="S11">
+        <v>0.002672382986210024</v>
+      </c>
+      <c r="T11">
+        <v>0.002672382986210023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.620393</v>
+      </c>
+      <c r="H12">
+        <v>19.861179</v>
+      </c>
+      <c r="I12">
+        <v>0.5045873181869075</v>
+      </c>
+      <c r="J12">
+        <v>0.5045873181869074</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.002366</v>
+      </c>
+      <c r="N12">
+        <v>30.007098</v>
+      </c>
+      <c r="O12">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="P12">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="Q12">
+        <v>66.21959384983801</v>
+      </c>
+      <c r="R12">
+        <v>595.976344648542</v>
+      </c>
+      <c r="S12">
+        <v>0.4935283360868568</v>
+      </c>
+      <c r="T12">
+        <v>0.4935283360868567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.620393</v>
+      </c>
+      <c r="H13">
+        <v>19.861179</v>
+      </c>
+      <c r="I13">
+        <v>0.5045873181869075</v>
+      </c>
+      <c r="J13">
+        <v>0.5045873181869074</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q13">
+        <v>0.2065937771603334</v>
+      </c>
+      <c r="R13">
+        <v>1.859343994443</v>
+      </c>
+      <c r="S13">
+        <v>0.001539723776002707</v>
+      </c>
+      <c r="T13">
+        <v>0.001539723776002707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.034161</v>
+      </c>
+      <c r="H14">
+        <v>0.102483</v>
+      </c>
+      <c r="I14">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J14">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.138766</v>
+      </c>
+      <c r="N14">
+        <v>0.416298</v>
+      </c>
+      <c r="O14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="P14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="Q14">
+        <v>0.004740385326</v>
+      </c>
+      <c r="R14">
+        <v>0.042663467934</v>
+      </c>
+      <c r="S14">
+        <v>3.532964106751397E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.532964106751397E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.034161</v>
+      </c>
+      <c r="H15">
+        <v>0.102483</v>
+      </c>
+      <c r="I15">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J15">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.162484</v>
+      </c>
+      <c r="O15">
+        <v>0.00529617548814441</v>
+      </c>
+      <c r="P15">
+        <v>0.005296175488144411</v>
+      </c>
+      <c r="Q15">
+        <v>0.001850205308</v>
+      </c>
+      <c r="R15">
+        <v>0.016651847772</v>
+      </c>
+      <c r="S15">
+        <v>1.378940422296994E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.378940422296994E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>14.14296233333333</v>
-      </c>
-      <c r="H10">
-        <v>42.428887</v>
-      </c>
-      <c r="I10">
-        <v>0.6282018629139038</v>
-      </c>
-      <c r="J10">
-        <v>0.6282018629139038</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.958350666666666</v>
-      </c>
-      <c r="N10">
-        <v>11.875052</v>
-      </c>
-      <c r="O10">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="P10">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="Q10">
-        <v>55.98280438079154</v>
-      </c>
-      <c r="R10">
-        <v>503.8452394271239</v>
-      </c>
-      <c r="S10">
-        <v>0.6051282578655431</v>
-      </c>
-      <c r="T10">
-        <v>0.6051282578655431</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.034161</v>
+      </c>
+      <c r="H16">
+        <v>0.102483</v>
+      </c>
+      <c r="I16">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J16">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.002366</v>
+      </c>
+      <c r="N16">
+        <v>30.007098</v>
+      </c>
+      <c r="O16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="P16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="Q16">
+        <v>0.3416908249260001</v>
+      </c>
+      <c r="R16">
+        <v>3.075217424334</v>
+      </c>
+      <c r="S16">
+        <v>0.002546589226510135</v>
+      </c>
+      <c r="T16">
+        <v>0.002546589226510135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.034161</v>
+      </c>
+      <c r="H17">
+        <v>0.102483</v>
+      </c>
+      <c r="I17">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J17">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q17">
+        <v>0.001066016779</v>
+      </c>
+      <c r="R17">
+        <v>0.009594151011000002</v>
+      </c>
+      <c r="S17">
+        <v>7.944921685469197E-06</v>
+      </c>
+      <c r="T17">
+        <v>7.944921685469197E-06</v>
       </c>
     </row>
   </sheetData>
